--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2322141.099733675</v>
+        <v>2319889.020022467</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9493136.700756837</v>
+        <v>9493136.700756835</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>110.1842403900288</v>
       </c>
       <c r="F2" t="n">
-        <v>145.7197662098036</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,10 +874,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>210.1089145855747</v>
+        <v>49.68400593664519</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>66.59597893822581</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.95558184798536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039586</v>
+        <v>72.89839816356285</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>110.7929204252946</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>97.1811194850564</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.7389995830103</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>214.4381565326525</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217515</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.6498836607848</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>65.99480013030949</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>56.49518623013036</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060558</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>181.6459914616344</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459361</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174148</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>140.7058473537592</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>243.2577348836416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>18.7084378797726</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>15.76045942438991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>122.4770547252864</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4307,58 +4307,58 @@
         <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>950.1045973369969</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="E2" t="n">
-        <v>564.3163447387526</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,7 +4367,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>922.6774975139006</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="X4" t="n">
-        <v>922.6774975139006</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.6774975139006</v>
+        <v>830.0383715796588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.164517693149</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2688.538263200155</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2335.769607930041</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1962.303849668961</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1572.164517693149</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4729,46 +4729,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1061.273978748255</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>771.8568087112945</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>771.8568087112945</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>551.0642295677644</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>809.8584150459947</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4884,49 +4884,49 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.212916266271</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820878</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832668</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855609</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199807</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.55619999392</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956959</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1327.139029956959</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239598</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.212916266271</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820878</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1018.438627038656</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>849.502444110749</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>699.3858046984133</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>551.4727111160202</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580265</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603206</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947404</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1938.286391947404</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1648.869221910443</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1420.879671012426</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1200.087091868896</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797193</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273913</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.230692780394</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>245.230692780394</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921465</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898186988</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.708435085168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572612</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803618</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979687</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154078</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192515</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,40 +5999,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.230692780394</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718711</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998423</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998423</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327661</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048592</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925235</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>149.89827541222</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806536</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630058</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6443,64 +6443,64 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>710.248605371872</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684978</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>739.2043518864219</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647281</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368213</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>481.4479471244855</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5348535420924</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949679</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
         <v>1767.889897446606</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1055.185257670615</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>886.249074742708</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>736.1324353303722</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>588.2193417479791</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>441.3293942500687</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1236.833722500854</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.7605018907561</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.93476969131004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>79.42624789262176</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>92.12028678808198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516633</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>104.8770068749566</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401563</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.19973830615865</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>5.728115292810003</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>43.26526345294937</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>126.7126101431587</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>129.6605885985413</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>43.04708356698241</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817515.6470952159</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
   </sheetData>
@@ -26323,25 +26323,25 @@
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
@@ -26350,7 +26350,7 @@
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
         <v>605359.949767504</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.202397277</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314487</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179353</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179344</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26442,19 +26442,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="O4" t="n">
         <v>11167.03225179352</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26476,19 +26476,19 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911251.4259139182</v>
+        <v>-911251.4259139178</v>
       </c>
       <c r="C6" t="n">
-        <v>417493.3198136744</v>
+        <v>417493.3198136742</v>
       </c>
       <c r="D6" t="n">
-        <v>417493.3198136741</v>
+        <v>417493.319813674</v>
       </c>
       <c r="E6" t="n">
-        <v>167657.9258844481</v>
+        <v>167623.1879590129</v>
       </c>
       <c r="F6" t="n">
-        <v>493070.3876918039</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="G6" t="n">
-        <v>493070.3876918039</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="H6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663676</v>
       </c>
       <c r="I6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="J6" t="n">
-        <v>275539.1852945267</v>
+        <v>275504.4473690905</v>
       </c>
       <c r="K6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="L6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.649766368</v>
       </c>
       <c r="M6" t="n">
-        <v>408015.3597562917</v>
+        <v>407980.621830856</v>
       </c>
       <c r="N6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="O6" t="n">
-        <v>493070.3876918035</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="P6" t="n">
-        <v>493070.3876918035</v>
+        <v>493035.6497663676</v>
       </c>
     </row>
   </sheetData>
@@ -26787,43 +26787,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>271.746129682233</v>
       </c>
       <c r="F2" t="n">
-        <v>261.1562795319078</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>76.41408375101628</v>
+        <v>236.8389923999458</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>261.1562795319091</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2823568080682</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034321</v>
+        <v>179.2392451602652</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>254.4799713457129</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.5499811934126</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>24.68204843992099</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.146496819442291</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.495430374854276e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>512.9101366533173</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>295.3955842839429</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312094</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
-        <v>414.6448185524864</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L21" t="n">
-        <v>209.9499448422505</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>270.9716933356888</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>602.4605829984174</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>608.2694430035896</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
-        <v>549.9198891312099</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>232.153703594058</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>512.9101366533177</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>461.1007071927452</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,7 +34457,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>379.5002789321571</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>370.3138922088728</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010494</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>407.323644686765</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899106</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
-        <v>272.510784630468</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316718</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="L21" t="n">
-        <v>71.39556506237632</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992802</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>132.4173135558146</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.1188709150841</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>469.7150632237154</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
-        <v>407.3236446867654</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>90.01966967203964</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>370.3138922088733</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>318.5044627483008</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,7 +38105,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>248.1585668488238</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
